--- a/startup and idle conditions.xlsx
+++ b/startup and idle conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pivetta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B398163-3D9B-42D6-89E0-30F63773A10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8011FB1-9924-4E22-A20C-CCF166B2698D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{7E1F8342-2714-467E-BE6D-2AA675425944}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{7E1F8342-2714-467E-BE6D-2AA675425944}"/>
   </bookViews>
   <sheets>
     <sheet name="casistica1" sheetId="1" r:id="rId1"/>
@@ -278,12 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,6 +286,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,18 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F558C9E-4D87-4784-A61E-0427F5DC2DCF}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,70 +651,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -780,16 +780,16 @@
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -809,10 +809,10 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -821,7 +821,7 @@
       <c r="I6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -830,21 +830,21 @@
       <c r="L6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E1:M1"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -853,20 +853,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21E884F-995F-43ED-A812-79FF9B69836E}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
+      <c r="A1" s="10"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -893,21 +893,21 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
@@ -916,21 +916,21 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
@@ -939,21 +939,21 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3">
@@ -962,18 +962,18 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -982,18 +982,18 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
@@ -1002,18 +1002,18 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3">
@@ -1022,18 +1022,18 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1042,18 +1042,18 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="D9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3">
@@ -1062,18 +1062,18 @@
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
@@ -1082,18 +1082,18 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="D11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="3">
@@ -1102,18 +1102,18 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3">
@@ -1122,13 +1122,13 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1136,12 +1136,6 @@
       <c r="G14">
         <f>COUNTA(D2:F13)</f>
         <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <f>G14*3</f>
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1182,148 +1176,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="13"/>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="11" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="11" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="13"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4" t="s">
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1426,25 +1420,25 @@
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
       <c r="U6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="X6" s="3" t="s">
@@ -1453,12 +1447,12 @@
       <c r="Y6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3"/>
@@ -1548,7 +1542,7 @@
       <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -1557,7 +1551,7 @@
       <c r="S8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="U8" s="3"/>
@@ -1652,16 +1646,16 @@
       <c r="J10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="3"/>
@@ -1733,12 +1727,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="R4:T4"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:T3"/>
@@ -1749,6 +1737,12 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/startup and idle conditions.xlsx
+++ b/startup and idle conditions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pivetta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8011FB1-9924-4E22-A20C-CCF166B2698D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36ACF1-C052-4E4C-8D0D-9143CA2C2994}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{7E1F8342-2714-467E-BE6D-2AA675425944}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{7E1F8342-2714-467E-BE6D-2AA675425944}"/>
   </bookViews>
   <sheets>
     <sheet name="casistica1" sheetId="1" r:id="rId1"/>
-    <sheet name="casistica2" sheetId="2" r:id="rId2"/>
-    <sheet name="casistica3" sheetId="3" r:id="rId3"/>
+    <sheet name="casistica2" sheetId="3" r:id="rId2"/>
+    <sheet name="casistica3" sheetId="2" r:id="rId3"/>
+    <sheet name="casistica4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="42">
   <si>
     <t>fcold</t>
   </si>
@@ -125,6 +126,39 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>ventilation</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>sicount</t>
+  </si>
+  <si>
+    <t>hscount</t>
+  </si>
+  <si>
+    <t>cscount</t>
+  </si>
+  <si>
+    <t>fhscount</t>
+  </si>
+  <si>
+    <t>fcscount</t>
   </si>
 </sst>
 </file>
@@ -148,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +201,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -265,11 +305,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,6 +483,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -639,7 +843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F558C9E-4D87-4784-A61E-0427F5DC2DCF}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -852,298 +1058,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21E884F-995F-43ED-A812-79FF9B69836E}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <f>COUNTA(D2:F13)</f>
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7E7DE9-6EA9-413B-97B8-D6B033BF50F2}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
@@ -1746,4 +1660,940 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21E884F-995F-43ED-A812-79FF9B69836E}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>COUNTA(D2:F13)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAD0780-4A7A-450B-A093-84AC26A8C6E1}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5</v>
+      </c>
+      <c r="F11" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="27">
+        <v>1</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+      <c r="F23" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="27">
+        <v>0</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="27">
+        <v>2</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>